--- a/bh3/547520919072391277_2021-07-15_11-00-48.xlsx
+++ b/bh3/547520919072391277_2021-07-15_11-00-48.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4914861258</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:56:17</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44392.70575231482</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:18:07</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44392.67924768518</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -685,10 +697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:19:36</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44392.63861111111</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -752,10 +762,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:55:13</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44392.62167824074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -831,10 +839,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:43:22</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44392.61344907407</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:27:03</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44392.60211805555</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -981,10 +985,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:26:24</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44392.60166666667</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1060,10 +1062,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:25:52</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44392.6012962963</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1131,10 +1131,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:17:16</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44392.59532407407</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1210,10 +1208,8 @@
           <t>4913923185</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:14:47</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44392.59359953704</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1277,10 +1273,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:14:01</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44392.59306712963</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1356,10 +1350,8 @@
           <t>4913833888</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:59:48</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44392.58319444444</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1440,10 +1432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:51:22</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44392.57733796296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1511,10 +1501,8 @@
           <t>4913589985</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:35</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44392.55665509259</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1586,10 +1574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:17</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44392.55436342592</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1665,10 +1651,8 @@
           <t>4913547236</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:06</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44392.55215277777</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1728,10 +1712,8 @@
           <t>4913534795</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:03</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44392.55142361111</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1803,10 +1785,8 @@
           <t>4913485369</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:44</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44392.54564814815</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1878,10 +1858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:00:06</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44392.54173611111</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1957,10 +1935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:55:44</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44392.53870370371</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2029,10 +2005,8 @@
           <t>4913384361</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:53:04</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44392.53685185185</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2096,10 +2070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:47:00</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44392.53263888889</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2163,10 +2135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:43:59</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44392.53054398148</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2238,10 +2208,8 @@
           <t>4913298402</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:42:42</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44392.52965277778</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -2313,10 +2281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:36:05</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44392.52505787037</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2376,10 +2342,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:35:09</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44392.52440972222</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2447,10 +2411,8 @@
           <t>4913242181</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:34:47</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44392.52415509259</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2526,10 +2488,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:34:07</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44392.52369212963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2598,10 +2558,8 @@
           <t>4912802522</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:33:42</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44392.52340277778</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2677,10 +2635,8 @@
           <t>4913226674</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:32:45</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44392.52274305555</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2756,10 +2712,8 @@
           <t>4913226426</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:32:39</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44392.52267361111</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2823,10 +2777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:29:31</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44392.52049768518</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2890,10 +2842,8 @@
           <t>4913201578</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:29:30</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44392.52048611111</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2969,10 +2919,8 @@
           <t>4913164047</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:25:16</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44392.51754629629</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3044,10 +2992,8 @@
           <t>4913163720</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:25:08</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44392.5174537037</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3119,10 +3065,8 @@
           <t>4913121215</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:18:49</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44392.51306712963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3198,10 +3142,8 @@
           <t>4913082762</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:14:03</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44392.50975694445</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3277,10 +3219,8 @@
           <t>4913066937</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:11:43</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44392.50813657408</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3352,10 +3292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:11:01</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44392.50765046296</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
@@ -3419,10 +3357,8 @@
           <t>4913056992</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:10:03</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44392.50697916667</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3486,10 +3422,8 @@
           <t>4912777400</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:09:13</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44392.50640046296</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3557,10 +3491,8 @@
           <t>4912851675</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:53</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44392.50616898148</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3628,10 +3560,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:17</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44392.50575231481</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3699,10 +3629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:42</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44392.50048611111</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3774,10 +3702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:12</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44392.50013888889</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3841,10 +3767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:58:07</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44392.49869212963</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3916,10 +3840,8 @@
           <t>4912967775</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:57:43</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44392.49841435185</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3983,10 +3905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:57:03</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44392.49795138889</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4054,10 +3974,8 @@
           <t>4912960843</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:56:43</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44392.49771990741</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4125,10 +4043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:55:37</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44392.49695601852</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4195,10 +4111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:55:32</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44392.49689814815</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4263,10 +4177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:55:24</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44392.49680555556</v>
       </c>
       <c r="I53" t="n">
         <v>4</v>
@@ -4326,10 +4238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:55:10</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44392.49664351852</v>
       </c>
       <c r="I54" t="n">
         <v>4</v>
@@ -4389,10 +4299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:55:09</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44392.49663194444</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4467,10 +4375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:55:02</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44392.49655092593</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -4530,10 +4436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:54:46</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44392.49636574074</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4593,10 +4497,8 @@
           <t>4912945463</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:54:13</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44392.4959837963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4664,10 +4566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:52:34</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44392.49483796296</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4743,10 +4643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:50:09</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44392.49315972222</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4822,10 +4720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:49:46</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44392.49289351852</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4893,10 +4789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:49:08</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44392.4924537037</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4968,10 +4862,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:48:43</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44392.49216435185</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5035,10 +4927,8 @@
           <t>4912907636</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:48:30</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44392.49201388889</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5114,10 +5004,8 @@
           <t>4912882846</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:45:55</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44392.49021990741</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5189,10 +5077,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:49</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44392.48876157407</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5260,10 +5146,8 @@
           <t>4912717157</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:30</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44392.48854166667</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5335,10 +5219,8 @@
           <t>4912866957</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:43:06</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44392.48826388889</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5414,10 +5296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:42:15</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44392.48767361111</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5485,10 +5365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:42</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44392.48729166666</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5564,10 +5442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:33</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44392.4871875</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5643,10 +5519,8 @@
           <t>4912858284</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:32</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44392.48717592593</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5718,10 +5592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:18</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44392.48701388889</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5785,10 +5657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:41:18</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44392.48701388889</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5860,10 +5730,8 @@
           <t>4912851675</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:40:34</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44392.48650462963</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5939,10 +5807,8 @@
           <t>4912851637</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:40:33</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44392.48649305556</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6006,10 +5872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:55</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44392.48605324074</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6081,10 +5945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:35</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44392.48582175926</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6156,10 +6018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:39:06</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44392.48548611111</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6223,10 +6083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:38:58</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44392.48539351852</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6294,10 +6152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:38:47</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44392.4852662037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6369,10 +6225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:38:40</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44392.48518518519</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6448,10 +6302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:38:27</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44392.48503472222</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6523,10 +6375,8 @@
           <t>4912845973</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:38:26</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44392.48502314815</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6598,10 +6448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:37:54</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44392.48465277778</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6669,10 +6517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:37:23</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44392.48429398148</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6745,10 +6591,8 @@
           <t>4912832598</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:36:53</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44392.48394675926</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6812,10 +6656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:36:29</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44392.48366898148</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6891,10 +6733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:36:21</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44392.48357638889</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6966,10 +6806,8 @@
           <t>4912802310</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:36:10</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44392.48344907408</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7033,10 +6871,8 @@
           <t>4912830819</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:36:02</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44392.48335648148</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7101,10 +6937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:35:42</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44392.483125</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7172,10 +7006,8 @@
           <t>4912825282</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:35:32</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44392.48300925926</v>
       </c>
       <c r="I93" t="n">
         <v>2</v>
@@ -7243,10 +7075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:35:31</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44392.48299768518</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7314,10 +7144,8 @@
           <t>4912819643</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:35:30</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44392.48298611111</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7381,10 +7209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:35:08</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44392.48273148148</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7452,10 +7278,8 @@
           <t>4912814253</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:35:02</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44392.48266203704</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7527,10 +7351,8 @@
           <t>4912642403</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:34:52</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44392.4825462963</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7598,10 +7420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:34:47</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44392.48248842593</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7678,10 +7498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:34:32</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44392.48231481481</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7753,10 +7571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:33:44</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44392.48175925926</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7828,10 +7644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:33:25</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44392.48153935185</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7895,10 +7709,8 @@
           <t>4912810750</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:33:23</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44392.4815162037</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7962,10 +7774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:32:59</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44392.48123842593</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8037,10 +7847,8 @@
           <t>4912801213</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:32:45</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44392.48107638889</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8116,10 +7924,8 @@
           <t>4912803557</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:32:36</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44392.48097222222</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8191,10 +7997,8 @@
           <t>4912802522</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:32:07</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44392.48063657407</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8266,10 +8070,8 @@
           <t>4912802310</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:32:02</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44392.4805787037</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8345,10 +8147,8 @@
           <t>4912781892</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:32:01</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44392.48056712963</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8421,10 +8221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:31:51</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44392.48045138889</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8496,10 +8294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:31:44</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44392.48037037037</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8567,10 +8363,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:31:42</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44392.48034722222</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8638,10 +8432,8 @@
           <t>4912801213</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:31:30</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44392.48020833333</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8709,10 +8501,8 @@
           <t>4912781892</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:31:20</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44392.4800925926</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8780,10 +8570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:31:14</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44392.48002314815</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8847,10 +8635,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:31:13</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44392.48001157407</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8918,10 +8704,8 @@
           <t>4912772876</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:31:13</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44392.48001157407</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8985,10 +8769,8 @@
           <t>4912795009</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:30:38</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44392.47960648148</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9060,10 +8842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:30:26</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44392.4794675926</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9123,10 +8903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:30:25</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44392.47945601852</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9190,10 +8968,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:29:50</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44392.47905092593</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9269,10 +9045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:29:25</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44392.47876157407</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9340,10 +9114,8 @@
           <t>4912778607</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:29:17</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44392.47866898148</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9416,10 +9188,8 @@
           <t>4912778499</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:29:13</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44392.47862268519</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9487,10 +9257,8 @@
           <t>4912781892</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:29:07</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44392.47855324074</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9562,10 +9330,8 @@
           <t>4912777626</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:28:47</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44392.47832175926</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9633,10 +9399,8 @@
           <t>4912777400</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:28:40</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44392.47824074074</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9696,10 +9460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:27:46</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44392.47761574074</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9771,10 +9533,8 @@
           <t>4912772876</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:27:31</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44392.47744212963</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9838,10 +9598,8 @@
           <t>4912768559</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:27:30</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44392.47743055555</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9913,10 +9671,8 @@
           <t>4912764806</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:27:23</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44392.47734953704</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9984,10 +9740,8 @@
           <t>4912772591</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:27:22</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44392.47733796296</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10047,10 +9801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:26:40</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44392.47685185185</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10118,10 +9870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:26:38</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44392.4768287037</v>
       </c>
       <c r="I134" t="n">
         <v>7</v>
@@ -10189,10 +9939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:26:31</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44392.47674768518</v>
       </c>
       <c r="I135" t="n">
         <v>15</v>
@@ -10252,10 +10000,8 @@
           <t>4912766036</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:26:18</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44392.47659722222</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10331,10 +10077,8 @@
           <t>4912770047</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:26:09</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44392.47649305555</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10420,10 +10164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:26:03</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44392.47642361111</v>
       </c>
       <c r="I138" t="n">
         <v>6</v>
@@ -10491,10 +10233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:26:02</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44392.47641203704</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10570,10 +10310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:25:46</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44392.47622685185</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10649,10 +10387,8 @@
           <t>4912755690</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:25:39</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44392.47614583333</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10716,10 +10452,8 @@
           <t>4912635400</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:25:30</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44392.47604166667</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10795,10 +10529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:24:56</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44392.47564814815</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10862,10 +10594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:24:43</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44392.47549768518</v>
       </c>
       <c r="I144" t="n">
         <v>5</v>
@@ -10933,10 +10663,8 @@
           <t>4912755690</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:24:03</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44392.47503472222</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -10996,10 +10724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:23:59</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44392.47498842593</v>
       </c>
       <c r="I146" t="n">
         <v>3</v>
@@ -11063,10 +10789,8 @@
           <t>4912751040</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:23:49</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44392.47487268518</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11142,10 +10866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:23:46</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44392.47483796296</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11221,10 +10943,8 @@
           <t>4912750894</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:23:45</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44392.47482638889</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11300,10 +11020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:22:56</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44392.47425925926</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11379,10 +11097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:22:47</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44392.47415509259</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11454,10 +11170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:22:29</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44392.47394675926</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11521,10 +11235,8 @@
           <t>4912737692</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:22:10</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44392.47372685185</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11588,10 +11300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:22:07</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44392.47369212963</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11655,10 +11365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:21:59</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44392.47359953704</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11734,10 +11442,8 @@
           <t>4912733677</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:21:50</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44392.47349537037</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11805,10 +11511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:21:45</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44392.4734375</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11872,10 +11576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:21:43</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44392.47341435185</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11939,10 +11641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:21:34</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44392.47331018518</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12015,10 +11715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:21:32</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44392.47328703704</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12086,10 +11784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:20:55</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44392.4728587963</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12167,10 +11863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:20:48</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44392.47277777778</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12249,10 +11943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:20:48</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44392.47277777778</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12316,10 +12008,8 @@
           <t>4912713962</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:20:36</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44392.47263888889</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12395,10 +12085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:20:08</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44392.47231481481</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12474,10 +12162,8 @@
           <t>4912719943</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:19:59</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44392.47221064815</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12553,10 +12239,8 @@
           <t>4912726865</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:19:43</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44392.47202546296</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12620,10 +12304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:19:40</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44392.47199074074</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12691,10 +12373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:19:28</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44392.47185185185</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12758,10 +12438,8 @@
           <t>4912717778</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:18:54</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44392.47145833333</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12825,10 +12503,8 @@
           <t>4912717675</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:18:50</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44392.47141203703</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12896,10 +12572,8 @@
           <t>4912717157</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:18:35</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44392.47123842593</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12971,10 +12645,8 @@
           <t>4912713962</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:18:18</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44392.47104166666</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13042,10 +12714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:18:08</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44392.47092592593</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13117,10 +12787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:17:54</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44392.47076388889</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13196,10 +12864,8 @@
           <t>4912708964</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:17:54</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44392.47076388889</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13263,10 +12929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:17:11</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44392.4702662037</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13340,10 +13004,8 @@
           <t>4912704151</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:17:05</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44392.47019675926</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13417,10 +13079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:16:48</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44392.47</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13496,10 +13156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:16:39</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44392.46989583333</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13567,10 +13225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:16:32</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44392.46981481482</v>
       </c>
       <c r="I181" t="n">
         <v>5</v>
@@ -13634,10 +13290,8 @@
           <t>4912705996</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:16:26</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44392.46974537037</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13713,10 +13367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:15:56</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44392.46939814815</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13792,10 +13444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:15:40</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44392.46921296296</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13867,10 +13517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:15:06</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44392.46881944445</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -13938,10 +13586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:15:00</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44392.46875</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14014,10 +13660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:14:31</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44392.46841435185</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14085,10 +13729,8 @@
           <t>4912688666</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:14:23</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44392.46832175926</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14160,10 +13802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:14:19</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44392.46827546296</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14227,10 +13867,8 @@
           <t>4912687126</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:13:37</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44392.46778935185</v>
       </c>
       <c r="I190" t="n">
         <v>3</v>
@@ -14298,10 +13936,8 @@
           <t>4912662263</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:13:36</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44392.46777777778</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14377,10 +14013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:12:34</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44392.46706018518</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14452,10 +14086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:12:25</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44392.46695601852</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14531,10 +14163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:12:08</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44392.46675925926</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14606,10 +14236,8 @@
           <t>4912673851</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:11:59</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44392.46665509259</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14681,10 +14309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:11:05</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44392.46603009259</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14752,10 +14378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:10:56</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44392.46592592593</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14824,10 +14448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:10:38</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44392.46571759259</v>
       </c>
       <c r="I198" t="n">
         <v>14</v>
@@ -14903,10 +14525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:10:33</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44392.46565972222</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14974,10 +14594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:10:32</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44392.46564814815</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15045,10 +14663,8 @@
           <t>4912667236</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:10:09</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44392.46538194444</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15120,10 +14736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:10:02</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44392.46530092593</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15187,10 +14801,8 @@
           <t>4912635400</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:10:01</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44392.46528935185</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15254,10 +14866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:09:53</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44392.46519675926</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15333,10 +14943,8 @@
           <t>4912662263</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:09:39</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44392.46503472222</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15412,10 +15020,8 @@
           <t>4912654620</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:08:51</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44392.46447916667</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15483,10 +15089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:08:51</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44392.46447916667</v>
       </c>
       <c r="I207" t="n">
         <v>43</v>
@@ -15550,10 +15154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:08:44</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44392.46439814815</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15621,10 +15223,8 @@
           <t>4912642403</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:08:37</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44392.46431712963</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15693,10 +15293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:08:19</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44392.4641087963</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15764,10 +15362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:08:18</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44392.46409722222</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15839,10 +15435,8 @@
           <t>4912649185</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:08:09</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44392.46399305556</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15910,10 +15504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:08:05</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44392.46394675926</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15985,10 +15577,8 @@
           <t>4912642403</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:07:24</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44392.46347222223</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16064,10 +15654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:06:45</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44392.46302083333</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16135,10 +15723,8 @@
           <t>4912642614</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:06:28</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44392.46282407407</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16214,10 +15800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:06:27</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44392.4628125</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16277,10 +15861,8 @@
           <t>4912642403</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:06:21</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44392.46274305556</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16348,10 +15930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:06:13</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44392.46265046296</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16415,10 +15995,8 @@
           <t>4912641663</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:06:00</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44392.4625</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16490,10 +16068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:05:46</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44392.46233796296</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16569,10 +16145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:05:42</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44392.46229166666</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16636,10 +16210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:05:39</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44392.46225694445</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16721,10 +16293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:05:30</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44392.46215277778</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16800,10 +16370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:05:17</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44392.46200231482</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16888,10 +16456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:05:15</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44392.46197916667</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16975,10 +16541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:05:08</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44392.46189814815</v>
       </c>
       <c r="I227" t="n">
         <v>3</v>
@@ -17054,10 +16618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:05:02</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44392.4618287037</v>
       </c>
       <c r="I228" t="n">
         <v>4</v>
@@ -17133,10 +16695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:04:54</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44392.46173611111</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17209,10 +16769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:04:53</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44392.46172453704</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17288,10 +16846,8 @@
           <t>4912629234</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:04:51</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44392.46170138889</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17355,10 +16911,8 @@
           <t>4912628572</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:04:33</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44392.46149305555</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17430,10 +16984,8 @@
           <t>4912635400</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:04:24</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44392.46138888889</v>
       </c>
       <c r="I233" t="n">
         <v>6</v>
@@ -17505,10 +17057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:04:18</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44392.46131944445</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17584,10 +17134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:04:17</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44392.46130787037</v>
       </c>
       <c r="I235" t="n">
         <v>61</v>
@@ -17655,10 +17203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:04:10</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44392.46122685185</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17734,10 +17280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:04:09</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44392.46121527778</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17805,10 +17349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:04:01</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44392.46112268518</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17868,10 +17410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:03:54</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44392.46104166667</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17943,10 +17483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:03:50</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44392.46099537037</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18010,10 +17548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:03:32</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44392.46078703704</v>
       </c>
       <c r="I241" t="n">
         <v>39</v>
@@ -18073,10 +17609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:03:31</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44392.46077546296</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18152,10 +17686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:03:27</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44392.46072916667</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18223,10 +17755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:03:21</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44392.46065972222</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18298,10 +17828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:03:21</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44392.46065972222</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18369,10 +17897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:03:16</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44392.46060185185</v>
       </c>
       <c r="I246" t="n">
         <v>4</v>
@@ -18440,10 +17966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:03:15</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44392.46059027778</v>
       </c>
       <c r="I247" t="n">
         <v>5</v>
@@ -18507,10 +18031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:03:04</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44392.46046296296</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18578,10 +18100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:03:04</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44392.46046296296</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18645,10 +18165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:03:00</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44392.46041666667</v>
       </c>
       <c r="I250" t="n">
         <v>194</v>
@@ -18716,10 +18234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:02:56</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44392.46037037037</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18795,10 +18311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:02:51</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44392.4603125</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18866,10 +18380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:02:34</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44392.46011574074</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18941,10 +18453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:02:26</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44392.46002314815</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19012,10 +18522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:02:21</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44392.45996527778</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19079,10 +18587,8 @@
           <t>4912616956</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:02:19</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44392.45994212963</v>
       </c>
       <c r="I256" t="n">
         <v>11</v>
@@ -19158,10 +18664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:02:17</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44392.45991898148</v>
       </c>
       <c r="I257" t="n">
         <v>19</v>
@@ -19237,10 +18741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:02:08</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44392.45981481481</v>
       </c>
       <c r="I258" t="n">
         <v>32</v>
@@ -19308,10 +18810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:02:00</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44392.45972222222</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19379,10 +18879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:58</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44392.45969907408</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19454,10 +18952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:57</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44392.4596875</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19521,10 +19017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:53</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44392.45964120371</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19596,10 +19090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:47</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44392.45957175926</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19671,10 +19163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:46</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44392.45956018518</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19738,10 +19228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:44</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44392.45953703704</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -19805,10 +19293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:37</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44392.45945601852</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19876,10 +19362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:29</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44392.45936342593</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19947,10 +19431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:26</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44392.45932870371</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20022,10 +19504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:22</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44392.45928240741</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20093,10 +19573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:19</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44392.45924768518</v>
       </c>
       <c r="I270" t="n">
         <v>667</v>
@@ -20160,10 +19638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:18</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44392.45923611111</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20227,10 +19703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:14</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44392.45918981481</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20306,10 +19780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:11</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44392.45915509259</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20385,10 +19857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:09</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44392.45913194444</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20456,10 +19926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:07</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44392.4591087963</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20535,10 +20003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:05</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44392.45908564814</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20610,10 +20076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:05</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44392.45908564814</v>
       </c>
       <c r="I277" t="n">
         <v>2</v>
@@ -20689,10 +20153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-15 11:01:03</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44392.4590625</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
